--- a/data/lucas.xlsx
+++ b/data/lucas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\OneDrive\Área de Trabalho\DataFlaskApp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1367FC69-85C3-4152-A0D0-DF76BB2B5D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F447E9D-B88E-4179-975C-2190F7C00264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Lap</t>
   </si>
@@ -47,6 +47,15 @@
   </si>
   <si>
     <t>S3</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Andre</t>
   </si>
 </sst>
 </file>
@@ -56,10 +65,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm:ss.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -82,10 +97,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,81 +436,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.109375" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="10.44140625" customWidth="1"/>
     <col min="6" max="6" width="9.109375" customWidth="1"/>
     <col min="7" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>1.56144675925926E-3</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>297</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>146.73208955223856</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>7</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>2.5417824074074101E-4</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>5.8526620370370395E-4</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>7.2200231481481497E-4</v>
       </c>
-      <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -513,34 +535,36 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>1.54962962962963E-3</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>294</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>149.76158445440959</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>7</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>2.6912037037036998E-4</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>6.7414351851851804E-4</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>6.0636574074074097E-4</v>
       </c>
-      <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -558,6 +582,9 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D8" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
